--- a/자유수강권/주산과암산(교재).xlsx
+++ b/자유수강권/주산과암산(교재).xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="77">
   <si>
     <t>주야</t>
   </si>
@@ -215,6 +215,9 @@
   </si>
   <si>
     <t>김지호</t>
+  </si>
+  <si>
+    <t>전유리</t>
   </si>
   <si>
     <t>4학년</t>
@@ -610,7 +613,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H34"/>
+  <dimension ref="A1:H35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1406,16 +1409,16 @@
         <v>8</v>
       </c>
       <c r="B31" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E31" s="1" t="s">
         <v>67</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>68</v>
       </c>
       <c r="F31" s="1" t="s">
         <v>13</v>
@@ -1432,16 +1435,16 @@
         <v>8</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F32" s="1" t="s">
         <v>13</v>
@@ -1458,16 +1461,16 @@
         <v>8</v>
       </c>
       <c r="B33" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E33" s="1" t="s">
         <v>71</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>73</v>
       </c>
       <c r="F33" s="1" t="s">
         <v>13</v>
@@ -1484,24 +1487,50 @@
         <v>8</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C34" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="13.5">
+      <c r="A35" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C35" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D34" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="E34" s="1" t="s">
+      <c r="D35" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="F34" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G34" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H34" s="1" t="s">
+      <c r="E35" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H35" s="1" t="s">
         <v>13</v>
       </c>
     </row>
